--- a/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_BI_Fibonacci.xlsx
+++ b/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_BI_Fibonacci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>startHeight</t>
   </si>
@@ -31,25 +31,22 @@
     <t>Name</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>main</t>
   </si>
   <si>
-    <t>Iteration Definition</t>
-  </si>
-  <si>
-    <t>Iteration Start up</t>
-  </si>
-  <si>
-    <t>Iteration Loop</t>
-  </si>
-  <si>
-    <t>Recursion Calculation</t>
-  </si>
-  <si>
-    <t>Recursion Return</t>
+    <t>Iterative definition</t>
+  </si>
+  <si>
+    <t>Pre calculation</t>
+  </si>
+  <si>
+    <t>Iteration Condition</t>
+  </si>
+  <si>
+    <t>Iteration Step</t>
+  </si>
+  <si>
+    <t>Return Result</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,16 +429,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -449,104 +446,223 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B3">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="B5">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>255</v>
+        <v>143</v>
       </c>
       <c r="B6">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="B7">
-        <v>370</v>
+        <v>198</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
+        <v>199</v>
+      </c>
+      <c r="B8">
+        <v>226</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>682</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>227</v>
+      </c>
+      <c r="B9">
+        <v>254</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>682</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>255</v>
+      </c>
+      <c r="B10">
+        <v>282</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>682</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>283</v>
+      </c>
+      <c r="B11">
+        <v>310</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>682</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>311</v>
+      </c>
+      <c r="B12">
+        <v>338</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>682</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>339</v>
+      </c>
+      <c r="B13">
+        <v>366</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>682</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>367</v>
+      </c>
+      <c r="B14">
+        <v>394</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>682</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
         <v>395</v>
       </c>
-      <c r="B8">
-        <v>425</v>
-      </c>
-      <c r="C8">
-        <v>55</v>
-      </c>
-      <c r="D8">
-        <v>650</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
+      <c r="B15">
+        <v>422</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>682</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
